--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/GiaThueTn/FileExcelMauGiaThueTaiNguyen243340405.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/GiaThueTn/FileExcelMauGiaThueTaiNguyen243340405.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\GiaThueTn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F211DB-5DAD-4A41-A501-DBFFE9807CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FD0B95-B371-4B6D-9E5F-5395CAEE0450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
@@ -85,22 +85,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -108,7 +107,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -135,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -158,12 +157,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -178,13 +186,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -503,33 +516,34 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.125" style="1"/>
     <col min="2" max="7" width="22" style="4" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" customWidth="1"/>
     <col min="9" max="9" width="22" style="4" customWidth="1"/>
-    <col min="10" max="10" width="22" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="22" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -592,48 +606,54 @@
       <c r="I3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="10">
         <v>5000</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>11</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>111</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>1111</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <v>11111</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="7">
         <v>111111</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="8">
         <v>10000</v>
       </c>
+      <c r="K4" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="J3:J1048576" xr:uid="{50B6A8B9-9281-4CA2-AF69-878841F1B887}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
